--- a/REGULAR/MANGUINAO, JOVELYN.xlsx
+++ b/REGULAR/MANGUINAO, JOVELYN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="284">
   <si>
     <t>PERIOD</t>
   </si>
@@ -882,6 +882,18 @@
   </si>
   <si>
     <t>DOMESTIC 10/14/19</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1266,6 +1278,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1339,43 +1354,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1416,6 +1394,43 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1750,7 +1765,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1808,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +1872,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1932,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1998,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2061,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,7 +2159,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,7 +2218,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2283,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2326,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2401,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2587,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2653,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,7 +2711,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2777,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2818,7 +2833,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2908,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +2951,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3017,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3073,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,7 +3171,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3219,7 +3234,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3285,7 +3300,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K384" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K441" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3321,7 +3336,7 @@
     <tableColumn id="1" name="DAYS"/>
     <tableColumn id="2" name="HOURS"/>
     <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="0">
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3330,14 +3345,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="3"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="2">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="1">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3663,12 +3678,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K384"/>
+  <dimension ref="A2:K441"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5415" topLeftCell="A375" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F381" sqref="F381"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <pane ySplit="4380" topLeftCell="A425" activePane="bottomLeft"/>
+      <selection activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="K435" sqref="K435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,62 +3705,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3771,18 +3786,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3829,7 +3844,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>171.922</v>
+        <v>212.422</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3839,7 +3854,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>224.447</v>
+        <v>281.947</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8023,7 +8038,7 @@
       </c>
       <c r="E190" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>171.922</v>
+        <v>212.422</v>
       </c>
       <c r="F190" s="15"/>
       <c r="G190" s="41" t="str">
@@ -8033,7 +8048,7 @@
       <c r="H190" s="42"/>
       <c r="I190" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>224.447</v>
+        <v>281.947</v>
       </c>
       <c r="J190" s="12"/>
       <c r="K190" s="50"/>
@@ -9915,7 +9930,7 @@
       </c>
       <c r="E271" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>171.922</v>
+        <v>212.422</v>
       </c>
       <c r="F271" s="20"/>
       <c r="G271" s="13" t="str">
@@ -9925,7 +9940,7 @@
       <c r="H271" s="39"/>
       <c r="I271" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>224.447</v>
+        <v>281.947</v>
       </c>
       <c r="J271" s="11"/>
       <c r="K271" s="50"/>
@@ -12146,7 +12161,7 @@
       </c>
       <c r="E367" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>171.922</v>
+        <v>212.422</v>
       </c>
       <c r="F367" s="20"/>
       <c r="G367" s="13" t="str">
@@ -12156,7 +12171,7 @@
       <c r="H367" s="39"/>
       <c r="I367" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>224.447</v>
+        <v>281.947</v>
       </c>
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
@@ -12285,7 +12300,7 @@
       </c>
       <c r="E373" s="48"/>
       <c r="F373" s="15"/>
-      <c r="G373" s="41" t="str">
+      <c r="G373" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -12303,7 +12318,7 @@
       <c r="D374" s="42"/>
       <c r="E374" s="48"/>
       <c r="F374" s="15"/>
-      <c r="G374" s="41" t="str">
+      <c r="G374" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -12324,7 +12339,7 @@
       <c r="D375" s="42"/>
       <c r="E375" s="48"/>
       <c r="F375" s="15"/>
-      <c r="G375" s="41">
+      <c r="G375" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -12387,7 +12402,7 @@
       <c r="D378" s="42"/>
       <c r="E378" s="48"/>
       <c r="F378" s="15"/>
-      <c r="G378" s="41">
+      <c r="G378" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -12429,7 +12444,7 @@
       <c r="D380" s="42"/>
       <c r="E380" s="48"/>
       <c r="F380" s="15"/>
-      <c r="G380" s="41">
+      <c r="G380" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -12498,7 +12513,7 @@
       <c r="D383" s="42"/>
       <c r="E383" s="48"/>
       <c r="F383" s="15"/>
-      <c r="G383" s="41">
+      <c r="G383" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -12521,7 +12536,7 @@
       <c r="D384" s="42"/>
       <c r="E384" s="48"/>
       <c r="F384" s="15"/>
-      <c r="G384" s="41">
+      <c r="G384" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -12531,6 +12546,1142 @@
       <c r="K384" s="15" t="s">
         <v>279</v>
       </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="40">
+        <v>43770</v>
+      </c>
+      <c r="B385" s="20"/>
+      <c r="C385" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D385" s="39"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="20"/>
+      <c r="G385" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H385" s="39"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="11"/>
+      <c r="K385" s="20"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" s="40">
+        <v>43800</v>
+      </c>
+      <c r="B386" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C386" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D386" s="39">
+        <v>2</v>
+      </c>
+      <c r="E386" s="9"/>
+      <c r="F386" s="20"/>
+      <c r="G386" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H386" s="39"/>
+      <c r="I386" s="9"/>
+      <c r="J386" s="11"/>
+      <c r="K386" s="20"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="B387" s="20"/>
+      <c r="C387" s="41"/>
+      <c r="D387" s="39"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="20"/>
+      <c r="G387" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H387" s="39"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="20"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B388" s="20"/>
+      <c r="C388" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D388" s="39"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="20"/>
+      <c r="G388" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H388" s="39"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="11"/>
+      <c r="K388" s="20"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="40">
+        <v>43862</v>
+      </c>
+      <c r="B389" s="20"/>
+      <c r="C389" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D389" s="39"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="20"/>
+      <c r="G389" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H389" s="39"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="20"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" s="40">
+        <v>43891</v>
+      </c>
+      <c r="B390" s="20"/>
+      <c r="C390" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D390" s="39"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H390" s="39"/>
+      <c r="I390" s="9"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="20"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" s="40">
+        <v>43922</v>
+      </c>
+      <c r="B391" s="20"/>
+      <c r="C391" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D391" s="39"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="20"/>
+      <c r="G391" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H391" s="39"/>
+      <c r="I391" s="9"/>
+      <c r="J391" s="11"/>
+      <c r="K391" s="20"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" s="40">
+        <v>43952</v>
+      </c>
+      <c r="B392" s="20"/>
+      <c r="C392" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D392" s="39"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="20"/>
+      <c r="G392" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H392" s="39"/>
+      <c r="I392" s="9"/>
+      <c r="J392" s="11"/>
+      <c r="K392" s="20"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" s="40">
+        <v>43983</v>
+      </c>
+      <c r="B393" s="20"/>
+      <c r="C393" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D393" s="39"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="20"/>
+      <c r="G393" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H393" s="39"/>
+      <c r="I393" s="9"/>
+      <c r="J393" s="11"/>
+      <c r="K393" s="20"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" s="40">
+        <v>44013</v>
+      </c>
+      <c r="B394" s="20"/>
+      <c r="C394" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D394" s="39"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="20"/>
+      <c r="G394" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H394" s="39"/>
+      <c r="I394" s="9"/>
+      <c r="J394" s="11"/>
+      <c r="K394" s="20"/>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A395" s="40">
+        <v>44044</v>
+      </c>
+      <c r="B395" s="20"/>
+      <c r="C395" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D395" s="39"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="20"/>
+      <c r="G395" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H395" s="39"/>
+      <c r="I395" s="9"/>
+      <c r="J395" s="11"/>
+      <c r="K395" s="20"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" s="40">
+        <v>44075</v>
+      </c>
+      <c r="B396" s="20"/>
+      <c r="C396" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D396" s="39"/>
+      <c r="E396" s="9"/>
+      <c r="F396" s="20"/>
+      <c r="G396" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H396" s="39"/>
+      <c r="I396" s="9"/>
+      <c r="J396" s="11"/>
+      <c r="K396" s="20"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="51">
+        <v>44105</v>
+      </c>
+      <c r="B397" s="15"/>
+      <c r="C397" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D397" s="42"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="15"/>
+      <c r="G397" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H397" s="42"/>
+      <c r="I397" s="9"/>
+      <c r="J397" s="12"/>
+      <c r="K397" s="15"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" s="40">
+        <v>44136</v>
+      </c>
+      <c r="B398" s="20"/>
+      <c r="C398" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D398" s="39"/>
+      <c r="E398" s="9"/>
+      <c r="F398" s="20"/>
+      <c r="G398" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H398" s="39"/>
+      <c r="I398" s="9"/>
+      <c r="J398" s="11"/>
+      <c r="K398" s="20"/>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B399" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C399" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D399" s="39">
+        <v>5</v>
+      </c>
+      <c r="E399" s="9"/>
+      <c r="F399" s="20"/>
+      <c r="G399" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H399" s="39"/>
+      <c r="I399" s="9"/>
+      <c r="J399" s="11"/>
+      <c r="K399" s="20"/>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="B400" s="20"/>
+      <c r="C400" s="13"/>
+      <c r="D400" s="39"/>
+      <c r="E400" s="9"/>
+      <c r="F400" s="20"/>
+      <c r="G400" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H400" s="39"/>
+      <c r="I400" s="9"/>
+      <c r="J400" s="11"/>
+      <c r="K400" s="20"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B401" s="20"/>
+      <c r="C401" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D401" s="39"/>
+      <c r="E401" s="9"/>
+      <c r="F401" s="20"/>
+      <c r="G401" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H401" s="39"/>
+      <c r="I401" s="9"/>
+      <c r="J401" s="11"/>
+      <c r="K401" s="20"/>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" s="40">
+        <v>44228</v>
+      </c>
+      <c r="B402" s="20"/>
+      <c r="C402" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D402" s="39"/>
+      <c r="E402" s="9"/>
+      <c r="F402" s="20"/>
+      <c r="G402" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H402" s="39"/>
+      <c r="I402" s="9"/>
+      <c r="J402" s="11"/>
+      <c r="K402" s="20"/>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A403" s="40">
+        <v>44256</v>
+      </c>
+      <c r="B403" s="20"/>
+      <c r="C403" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D403" s="39"/>
+      <c r="E403" s="9"/>
+      <c r="F403" s="20"/>
+      <c r="G403" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H403" s="39"/>
+      <c r="I403" s="9"/>
+      <c r="J403" s="11"/>
+      <c r="K403" s="20"/>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A404" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B404" s="20"/>
+      <c r="C404" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D404" s="39"/>
+      <c r="E404" s="9"/>
+      <c r="F404" s="20"/>
+      <c r="G404" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H404" s="39"/>
+      <c r="I404" s="9"/>
+      <c r="J404" s="11"/>
+      <c r="K404" s="20"/>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A405" s="40">
+        <v>44317</v>
+      </c>
+      <c r="B405" s="20"/>
+      <c r="C405" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D405" s="39"/>
+      <c r="E405" s="9"/>
+      <c r="F405" s="20"/>
+      <c r="G405" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H405" s="39"/>
+      <c r="I405" s="9"/>
+      <c r="J405" s="11"/>
+      <c r="K405" s="20"/>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" s="40">
+        <v>44348</v>
+      </c>
+      <c r="B406" s="20"/>
+      <c r="C406" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D406" s="39"/>
+      <c r="E406" s="9"/>
+      <c r="F406" s="20"/>
+      <c r="G406" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H406" s="39"/>
+      <c r="I406" s="9"/>
+      <c r="J406" s="11"/>
+      <c r="K406" s="20"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" s="40">
+        <v>44378</v>
+      </c>
+      <c r="B407" s="20"/>
+      <c r="C407" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D407" s="39"/>
+      <c r="E407" s="9"/>
+      <c r="F407" s="20"/>
+      <c r="G407" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H407" s="39"/>
+      <c r="I407" s="9"/>
+      <c r="J407" s="11"/>
+      <c r="K407" s="20"/>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B408" s="20"/>
+      <c r="C408" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D408" s="39"/>
+      <c r="E408" s="9"/>
+      <c r="F408" s="20"/>
+      <c r="G408" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H408" s="39"/>
+      <c r="I408" s="9"/>
+      <c r="J408" s="11"/>
+      <c r="K408" s="20"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="40">
+        <v>44440</v>
+      </c>
+      <c r="B409" s="20"/>
+      <c r="C409" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D409" s="39"/>
+      <c r="E409" s="9"/>
+      <c r="F409" s="20"/>
+      <c r="G409" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H409" s="39"/>
+      <c r="I409" s="9"/>
+      <c r="J409" s="11"/>
+      <c r="K409" s="20"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="40">
+        <v>44470</v>
+      </c>
+      <c r="B410" s="20"/>
+      <c r="C410" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D410" s="39"/>
+      <c r="E410" s="9"/>
+      <c r="F410" s="20"/>
+      <c r="G410" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H410" s="39"/>
+      <c r="I410" s="9"/>
+      <c r="J410" s="11"/>
+      <c r="K410" s="20"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="40">
+        <v>44501</v>
+      </c>
+      <c r="B411" s="20"/>
+      <c r="C411" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D411" s="39"/>
+      <c r="E411" s="9"/>
+      <c r="F411" s="20"/>
+      <c r="G411" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H411" s="39"/>
+      <c r="I411" s="9"/>
+      <c r="J411" s="11"/>
+      <c r="K411" s="20"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B412" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C412" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D412" s="39">
+        <v>5</v>
+      </c>
+      <c r="E412" s="9"/>
+      <c r="F412" s="20"/>
+      <c r="G412" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H412" s="39"/>
+      <c r="I412" s="9"/>
+      <c r="J412" s="11"/>
+      <c r="K412" s="20"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B413" s="20"/>
+      <c r="C413" s="13"/>
+      <c r="D413" s="39"/>
+      <c r="E413" s="9"/>
+      <c r="F413" s="20"/>
+      <c r="G413" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H413" s="39"/>
+      <c r="I413" s="9"/>
+      <c r="J413" s="11"/>
+      <c r="K413" s="20"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B414" s="20"/>
+      <c r="C414" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D414" s="39"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="20"/>
+      <c r="G414" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H414" s="39"/>
+      <c r="I414" s="9"/>
+      <c r="J414" s="11"/>
+      <c r="K414" s="20"/>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" s="40">
+        <v>44593</v>
+      </c>
+      <c r="B415" s="20"/>
+      <c r="C415" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D415" s="39"/>
+      <c r="E415" s="9"/>
+      <c r="F415" s="20"/>
+      <c r="G415" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H415" s="39"/>
+      <c r="I415" s="9"/>
+      <c r="J415" s="11"/>
+      <c r="K415" s="20"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A416" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B416" s="20"/>
+      <c r="C416" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D416" s="39"/>
+      <c r="E416" s="9"/>
+      <c r="F416" s="20"/>
+      <c r="G416" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H416" s="39"/>
+      <c r="I416" s="9"/>
+      <c r="J416" s="11"/>
+      <c r="K416" s="20"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B417" s="20"/>
+      <c r="C417" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D417" s="39"/>
+      <c r="E417" s="9"/>
+      <c r="F417" s="20"/>
+      <c r="G417" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H417" s="39"/>
+      <c r="I417" s="9"/>
+      <c r="J417" s="11"/>
+      <c r="K417" s="20"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B418" s="20"/>
+      <c r="C418" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D418" s="39"/>
+      <c r="E418" s="9"/>
+      <c r="F418" s="20"/>
+      <c r="G418" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H418" s="39"/>
+      <c r="I418" s="9"/>
+      <c r="J418" s="11"/>
+      <c r="K418" s="20"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B419" s="20"/>
+      <c r="C419" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D419" s="39"/>
+      <c r="E419" s="9"/>
+      <c r="F419" s="20"/>
+      <c r="G419" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H419" s="39"/>
+      <c r="I419" s="9"/>
+      <c r="J419" s="11"/>
+      <c r="K419" s="20"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B420" s="20"/>
+      <c r="C420" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D420" s="39"/>
+      <c r="E420" s="9"/>
+      <c r="F420" s="20"/>
+      <c r="G420" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H420" s="39"/>
+      <c r="I420" s="9"/>
+      <c r="J420" s="11"/>
+      <c r="K420" s="20"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B421" s="20"/>
+      <c r="C421" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D421" s="39"/>
+      <c r="E421" s="9"/>
+      <c r="F421" s="20"/>
+      <c r="G421" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H421" s="39"/>
+      <c r="I421" s="9"/>
+      <c r="J421" s="11"/>
+      <c r="K421" s="20"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B422" s="20"/>
+      <c r="C422" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D422" s="39"/>
+      <c r="E422" s="9"/>
+      <c r="F422" s="20"/>
+      <c r="G422" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H422" s="39"/>
+      <c r="I422" s="9"/>
+      <c r="J422" s="11"/>
+      <c r="K422" s="20"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B423" s="20"/>
+      <c r="C423" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D423" s="39"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="20"/>
+      <c r="G423" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H423" s="39"/>
+      <c r="I423" s="9"/>
+      <c r="J423" s="11"/>
+      <c r="K423" s="20"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B424" s="20"/>
+      <c r="C424" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D424" s="39"/>
+      <c r="E424" s="9"/>
+      <c r="F424" s="20"/>
+      <c r="G424" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H424" s="39"/>
+      <c r="I424" s="9"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="20"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B425" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C425" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D425" s="39">
+        <v>5</v>
+      </c>
+      <c r="E425" s="9"/>
+      <c r="F425" s="20"/>
+      <c r="G425" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H425" s="39"/>
+      <c r="I425" s="9"/>
+      <c r="J425" s="11"/>
+      <c r="K425" s="20"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="B426" s="20"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="39"/>
+      <c r="E426" s="9"/>
+      <c r="F426" s="20"/>
+      <c r="G426" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H426" s="39"/>
+      <c r="I426" s="9"/>
+      <c r="J426" s="11"/>
+      <c r="K426" s="20"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B427" s="20"/>
+      <c r="C427" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D427" s="39"/>
+      <c r="E427" s="9"/>
+      <c r="F427" s="20"/>
+      <c r="G427" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H427" s="39"/>
+      <c r="I427" s="9"/>
+      <c r="J427" s="11"/>
+      <c r="K427" s="20"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B428" s="20"/>
+      <c r="C428" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D428" s="39"/>
+      <c r="E428" s="9"/>
+      <c r="F428" s="20"/>
+      <c r="G428" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H428" s="39"/>
+      <c r="I428" s="9"/>
+      <c r="J428" s="11"/>
+      <c r="K428" s="20"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A429" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B429" s="20"/>
+      <c r="C429" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D429" s="39"/>
+      <c r="E429" s="9"/>
+      <c r="F429" s="20"/>
+      <c r="G429" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H429" s="39"/>
+      <c r="I429" s="9"/>
+      <c r="J429" s="11"/>
+      <c r="K429" s="20"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A430" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B430" s="20"/>
+      <c r="C430" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D430" s="39"/>
+      <c r="E430" s="9"/>
+      <c r="F430" s="20"/>
+      <c r="G430" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H430" s="39"/>
+      <c r="I430" s="9"/>
+      <c r="J430" s="11"/>
+      <c r="K430" s="20"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B431" s="20"/>
+      <c r="C431" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D431" s="39"/>
+      <c r="E431" s="9"/>
+      <c r="F431" s="20"/>
+      <c r="G431" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H431" s="39"/>
+      <c r="I431" s="9"/>
+      <c r="J431" s="11"/>
+      <c r="K431" s="20"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A432" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B432" s="20"/>
+      <c r="C432" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D432" s="39"/>
+      <c r="E432" s="9"/>
+      <c r="F432" s="20"/>
+      <c r="G432" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H432" s="39"/>
+      <c r="I432" s="9"/>
+      <c r="J432" s="11"/>
+      <c r="K432" s="20"/>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B433" s="20"/>
+      <c r="C433" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D433" s="39"/>
+      <c r="E433" s="9"/>
+      <c r="F433" s="20"/>
+      <c r="G433" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H433" s="39"/>
+      <c r="I433" s="9"/>
+      <c r="J433" s="11"/>
+      <c r="K433" s="20"/>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A434" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B434" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C434" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D434" s="39"/>
+      <c r="E434" s="9"/>
+      <c r="F434" s="20"/>
+      <c r="G434" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H434" s="39"/>
+      <c r="I434" s="9"/>
+      <c r="J434" s="11"/>
+      <c r="K434" s="49">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A435" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B435" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C435" s="13"/>
+      <c r="D435" s="39"/>
+      <c r="E435" s="9"/>
+      <c r="F435" s="20"/>
+      <c r="G435" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H435" s="39"/>
+      <c r="I435" s="9"/>
+      <c r="J435" s="11"/>
+      <c r="K435" s="49">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A436" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B436" s="20"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="39"/>
+      <c r="E436" s="9"/>
+      <c r="F436" s="20"/>
+      <c r="G436" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H436" s="39"/>
+      <c r="I436" s="9"/>
+      <c r="J436" s="11"/>
+      <c r="K436" s="20"/>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B437" s="20"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="39"/>
+      <c r="E437" s="9"/>
+      <c r="F437" s="20"/>
+      <c r="G437" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H437" s="39"/>
+      <c r="I437" s="9"/>
+      <c r="J437" s="11"/>
+      <c r="K437" s="20"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A438" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B438" s="20"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="39"/>
+      <c r="E438" s="9"/>
+      <c r="F438" s="20"/>
+      <c r="G438" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H438" s="39"/>
+      <c r="I438" s="9"/>
+      <c r="J438" s="11"/>
+      <c r="K438" s="20"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A439" s="40"/>
+      <c r="B439" s="20"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="39"/>
+      <c r="E439" s="9"/>
+      <c r="F439" s="20"/>
+      <c r="G439" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H439" s="39"/>
+      <c r="I439" s="9"/>
+      <c r="J439" s="11"/>
+      <c r="K439" s="20"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" s="40"/>
+      <c r="B440" s="20"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="39"/>
+      <c r="E440" s="9"/>
+      <c r="F440" s="20"/>
+      <c r="G440" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H440" s="39"/>
+      <c r="I440" s="9"/>
+      <c r="J440" s="11"/>
+      <c r="K440" s="20"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" s="51"/>
+      <c r="B441" s="15"/>
+      <c r="C441" s="41"/>
+      <c r="D441" s="42"/>
+      <c r="E441" s="48"/>
+      <c r="F441" s="15"/>
+      <c r="G441" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H441" s="42"/>
+      <c r="I441" s="48"/>
+      <c r="J441" s="12"/>
+      <c r="K441" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12596,17 +13747,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -12689,12 +13840,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
